--- a/HDICCZPPM0300/Data/Config.xlsx
+++ b/HDICCZPPM0300/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\uipathProjects\RPA\HDICCZPPM0300\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EEFF12-68E4-4DB5-ADE2-EB5DAAF8B5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833BF874-84E7-4330-955E-B069EC6615DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,10 +166,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>d:\test\</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>FileSuffix</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -178,11 +174,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>BeforeFileSuffix</t>
+    <t>BeforeDownload</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>_bf.xlsx</t>
+    <t>d:\RPA\BeforeDownload\</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>d:\RPA\Download\</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -562,7 +562,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -644,23 +644,23 @@
         <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>

--- a/HDICCZPPM0300/Data/Config.xlsx
+++ b/HDICCZPPM0300/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\uipathProjects\RPA\HDICCZPPM0300\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833BF874-84E7-4330-955E-B069EC6615DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C0B43B-794A-40C9-98C8-14E224E081BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="1050" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>d:\RPA\Download\</t>
+    <t>d:\RPA\AfterDownload\</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
